--- a/protocols/protocol_list.xlsx
+++ b/protocols/protocol_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CB26CE-6787-7D42-BE38-0C8F472BFB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2B63ED-D048-094A-AAD0-FB2C1C840C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{16933DC1-5F16-5E49-BFC0-D2D21D18135C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Protocol</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>https://github.com/urol-e5/protocols/blob/master/2022-09-24-Moorea-Daily-Measurement-Protocol.md</t>
+  </si>
+  <si>
+    <t>Weekly maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseline sampling </t>
+  </si>
+  <si>
+    <t>December sampling</t>
   </si>
 </sst>
 </file>
@@ -409,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37935DEF-771C-2B4A-8FDB-EC65E3927D29}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,6 +453,21 @@
         <v>20220924</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/protocols/protocol_list.xlsx
+++ b/protocols/protocol_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2B63ED-D048-094A-AAD0-FB2C1C840C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70964946-F17C-0342-B7AF-9170998A0DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{16933DC1-5F16-5E49-BFC0-D2D21D18135C}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>20220924</v>
+        <v>20220929</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/protocols/protocol_list.xlsx
+++ b/protocols/protocol_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70964946-F17C-0342-B7AF-9170998A0DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAF1247-F039-0043-984C-18475DEE3638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{16933DC1-5F16-5E49-BFC0-D2D21D18135C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Protocol</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>December sampling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cleaning, mortality, rearrange frags, rearrange tanks, download loggers </t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,6 +460,9 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">

--- a/protocols/protocol_list.xlsx
+++ b/protocols/protocol_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAF1247-F039-0043-984C-18475DEE3638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAA500D-D853-0D49-9B23-7EA292E5E0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{16933DC1-5F16-5E49-BFC0-D2D21D18135C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Protocol</t>
   </si>
@@ -57,10 +57,13 @@
     <t xml:space="preserve">Baseline sampling </t>
   </si>
   <si>
-    <t>December sampling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cleaning, mortality, rearrange frags, rearrange tanks, download loggers </t>
+    <t>https://github.com/urol-e5/protocols/blob/master/2022-09-30-Moorea-E5-Apulchra-Metabolism-Baseline-Sampling-Protocol.md</t>
+  </si>
+  <si>
+    <t>https://github.com/urol-e5/protocols/blob/master/2022-09-30-Moorea-E5-Apulchra-Metabolism-Weekly-Maintenance-Protocol.md</t>
+  </si>
+  <si>
+    <t>Final sampling</t>
   </si>
 </sst>
 </file>
@@ -424,13 +427,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="90.1640625" customWidth="1"/>
+    <col min="2" max="2" width="117.1640625" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -463,15 +466,24 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3">
+        <v>20220930</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>20220930</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/protocols/protocol_list.xlsx
+++ b/protocols/protocol_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAA500D-D853-0D49-9B23-7EA292E5E0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CF75BC-0060-A342-88A4-3EFBC541FD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{16933DC1-5F16-5E49-BFC0-D2D21D18135C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Protocol</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Final sampling</t>
+  </si>
+  <si>
+    <t>Feeding</t>
+  </si>
+  <si>
+    <t>https://github.com/urol-e5/protocols/blob/master/2022-10-17-Moorea-E5-Feeding-Protocol.md</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37935DEF-771C-2B4A-8FDB-EC65E3927D29}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>20220929</v>
+        <v>20221012</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -484,6 +490,17 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>20221017</v>
       </c>
     </row>
   </sheetData>
